--- a/notebooks/RNU4-2/input/RNU4-2_RENU_individuals.xlsx
+++ b/notebooks/RNU4-2/input/RNU4-2_RENU_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/RNU4-2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F9BD89-43F1-D340-8A8C-EAFBC60EE909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB42C875-3CEA-7345-8CAD-909618A913A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="32680" windowHeight="18860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="2520" windowWidth="37860" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9381" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9463" uniqueCount="496">
   <si>
     <t>PMID</t>
   </si>
@@ -1491,6 +1491,36 @@
   </si>
   <si>
     <t>NR_003137.2</t>
+  </si>
+  <si>
+    <t>PMID:38859706</t>
+  </si>
+  <si>
+    <t>Re-analysis of whole genome sequencing ends a diagnostic odyssey: Case report of an RNU4-2 related neurodevelopmental disorder</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>P5Y4M</t>
+  </si>
+  <si>
+    <t>Thickened nuchal skin fold</t>
+  </si>
+  <si>
+    <t>HP:0000474</t>
+  </si>
+  <si>
+    <t>Fetal onset</t>
+  </si>
+  <si>
+    <t>Neonatal onset</t>
+  </si>
+  <si>
+    <t>Recurrent pneumonia</t>
+  </si>
+  <si>
+    <t>HP:0006532</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1578,8 +1608,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1884,15 +1912,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GM51"/>
+  <dimension ref="A1:GO52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FN1" workbookViewId="0">
-      <selection activeCell="GJ1" sqref="GJ1:GJ1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="W52" sqref="W52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:195" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:197" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2478,8 +2506,14 @@
       <c r="GM1" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="GN1" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="GO1" s="3" t="s">
+        <v>494</v>
+      </c>
     </row>
-    <row r="2" spans="1:195" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:197" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -3065,8 +3099,14 @@
       <c r="GM2" t="s">
         <v>484</v>
       </c>
+      <c r="GN2" t="s">
+        <v>491</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>495</v>
+      </c>
     </row>
-    <row r="3" spans="1:195" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:197" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -3620,7 +3660,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:195" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:197" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -4174,7 +4214,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:195" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:197" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -4728,7 +4768,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:195" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:197" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -5282,7 +5322,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:195" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:197" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -5836,7 +5876,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:195" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:197" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -6390,7 +6430,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:195" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:197" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>130</v>
       </c>
@@ -6944,7 +6984,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:195" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:197" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -7498,7 +7538,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:195" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:197" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -8052,7 +8092,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:195" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:197" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>130</v>
       </c>
@@ -8606,7 +8646,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:195" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:197" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>130</v>
       </c>
@@ -9160,7 +9200,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:195" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:197" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -9714,7 +9754,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:195" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:197" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>130</v>
       </c>
@@ -10268,7 +10308,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:195" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:197" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -28484,7 +28524,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:195" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:197" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>130</v>
       </c>
@@ -29029,7 +29069,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="50" spans="1:195" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:197" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>130</v>
       </c>
@@ -29583,558 +29623,794 @@
         <v>220</v>
       </c>
     </row>
-    <row r="51" spans="1:195" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+    <row r="51" spans="1:197" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>130</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" t="s">
         <v>131</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" t="s">
         <v>180</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" t="s">
         <v>71</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" t="s">
         <v>72</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="G51" t="s">
         <v>73</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H51" t="s">
         <v>74</v>
       </c>
       <c r="I51" t="s">
         <v>485</v>
       </c>
-      <c r="J51" s="7" t="s">
+      <c r="J51" t="s">
         <v>187</v>
       </c>
-      <c r="K51" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M51" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="N51" s="7" t="s">
+      <c r="K51" t="s">
+        <v>78</v>
+      </c>
+      <c r="M51" t="s">
+        <v>78</v>
+      </c>
+      <c r="N51" t="s">
         <v>194</v>
       </c>
-      <c r="O51" s="7" t="s">
+      <c r="O51" t="s">
         <v>217</v>
       </c>
-      <c r="P51" s="7" t="s">
+      <c r="P51" t="s">
         <v>192</v>
       </c>
-      <c r="Q51" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="S51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="T51" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="U51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="V51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="W51" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z51" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB51" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD51" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="AE51" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF51" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG51" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI51" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="AJ51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="AK51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="AN51" s="7" t="s">
+      <c r="Q51" t="s">
+        <v>78</v>
+      </c>
+      <c r="S51" t="s">
+        <v>220</v>
+      </c>
+      <c r="T51" t="s">
+        <v>221</v>
+      </c>
+      <c r="U51" t="s">
+        <v>220</v>
+      </c>
+      <c r="V51" t="s">
+        <v>220</v>
+      </c>
+      <c r="W51" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG51" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI51" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN51" t="s">
         <v>272</v>
       </c>
-      <c r="AO51" s="7" t="s">
+      <c r="AO51" t="s">
         <v>190</v>
       </c>
-      <c r="AP51" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="AQ51" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR51" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU51" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="AX51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BA51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BB51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BC51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BD51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BE51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BF51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BG51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BH51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BI51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BJ51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BK51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BL51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BM51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BN51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BO51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BP51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BQ51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BR51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BS51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BT51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BU51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BV51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BW51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BX51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BY51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BZ51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="CA51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="CB51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="CC51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="CD51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="CE51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="CF51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="CG51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="CH51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="CI51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="CJ51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="CK51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="CL51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="CM51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="CN51" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="CO51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="CP51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="CQ51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="CR51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="CS51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="CT51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="CU51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="CV51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="CW51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="CX51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="CY51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="CZ51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="DA51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="DB51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="DC51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="DD51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="DE51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="DF51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="DG51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="DH51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="DI51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="DJ51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="DK51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="DL51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="DM51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="DN51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="DO51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="DP51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="DQ51" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="DR51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="DS51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="DT51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="DU51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="DV51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="DW51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="DX51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="DY51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="DZ51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="EA51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="EB51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="EC51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="ED51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="EE51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="EF51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="EG51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="EH51" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="EI51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="EJ51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="EK51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="EL51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="EM51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="EN51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="EO51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="EP51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="EQ51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="ER51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="ES51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="ET51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="EU51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="EV51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="EW51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="EX51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="EY51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="EZ51" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="FA51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="FB51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="FC51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="FD51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="FE51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="FF51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="FG51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="FH51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="FI51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="FJ51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="FK51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="FL51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="FM51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="FN51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="FO51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="FP51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="FQ51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="FR51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="FS51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="FT51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="FU51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="FV51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="FW51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="FX51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="FY51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="FZ51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="GA51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="GB51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="GC51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="GD51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="GE51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="GF51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="GG51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="GH51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="GI51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="GJ51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="GK51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="GL51" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="GM51" s="7" t="s">
-        <v>220</v>
+      <c r="AP51" t="s">
+        <v>221</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>220</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>221</v>
+      </c>
+      <c r="AX51" t="s">
+        <v>220</v>
+      </c>
+      <c r="BA51" t="s">
+        <v>220</v>
+      </c>
+      <c r="BB51" t="s">
+        <v>220</v>
+      </c>
+      <c r="BC51" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD51" t="s">
+        <v>220</v>
+      </c>
+      <c r="BE51" t="s">
+        <v>220</v>
+      </c>
+      <c r="BF51" t="s">
+        <v>220</v>
+      </c>
+      <c r="BG51" t="s">
+        <v>220</v>
+      </c>
+      <c r="BH51" t="s">
+        <v>220</v>
+      </c>
+      <c r="BI51" t="s">
+        <v>220</v>
+      </c>
+      <c r="BJ51" t="s">
+        <v>220</v>
+      </c>
+      <c r="BK51" t="s">
+        <v>220</v>
+      </c>
+      <c r="BL51" t="s">
+        <v>220</v>
+      </c>
+      <c r="BM51" t="s">
+        <v>220</v>
+      </c>
+      <c r="BN51" t="s">
+        <v>220</v>
+      </c>
+      <c r="BO51" t="s">
+        <v>220</v>
+      </c>
+      <c r="BP51" t="s">
+        <v>220</v>
+      </c>
+      <c r="BQ51" t="s">
+        <v>220</v>
+      </c>
+      <c r="BR51" t="s">
+        <v>220</v>
+      </c>
+      <c r="BS51" t="s">
+        <v>220</v>
+      </c>
+      <c r="BT51" t="s">
+        <v>220</v>
+      </c>
+      <c r="BU51" t="s">
+        <v>220</v>
+      </c>
+      <c r="BV51" t="s">
+        <v>220</v>
+      </c>
+      <c r="BW51" t="s">
+        <v>220</v>
+      </c>
+      <c r="BX51" t="s">
+        <v>220</v>
+      </c>
+      <c r="BY51" t="s">
+        <v>220</v>
+      </c>
+      <c r="BZ51" t="s">
+        <v>220</v>
+      </c>
+      <c r="CA51" t="s">
+        <v>220</v>
+      </c>
+      <c r="CB51" t="s">
+        <v>220</v>
+      </c>
+      <c r="CC51" t="s">
+        <v>220</v>
+      </c>
+      <c r="CD51" t="s">
+        <v>220</v>
+      </c>
+      <c r="CE51" t="s">
+        <v>220</v>
+      </c>
+      <c r="CF51" t="s">
+        <v>220</v>
+      </c>
+      <c r="CG51" t="s">
+        <v>220</v>
+      </c>
+      <c r="CH51" t="s">
+        <v>220</v>
+      </c>
+      <c r="CI51" t="s">
+        <v>220</v>
+      </c>
+      <c r="CJ51" t="s">
+        <v>220</v>
+      </c>
+      <c r="CK51" t="s">
+        <v>220</v>
+      </c>
+      <c r="CL51" t="s">
+        <v>220</v>
+      </c>
+      <c r="CM51" t="s">
+        <v>220</v>
+      </c>
+      <c r="CN51" t="s">
+        <v>221</v>
+      </c>
+      <c r="CO51" t="s">
+        <v>220</v>
+      </c>
+      <c r="CP51" t="s">
+        <v>220</v>
+      </c>
+      <c r="CQ51" t="s">
+        <v>220</v>
+      </c>
+      <c r="CR51" t="s">
+        <v>220</v>
+      </c>
+      <c r="CS51" t="s">
+        <v>220</v>
+      </c>
+      <c r="CT51" t="s">
+        <v>220</v>
+      </c>
+      <c r="CU51" t="s">
+        <v>220</v>
+      </c>
+      <c r="CV51" t="s">
+        <v>220</v>
+      </c>
+      <c r="CW51" t="s">
+        <v>220</v>
+      </c>
+      <c r="CX51" t="s">
+        <v>220</v>
+      </c>
+      <c r="CY51" t="s">
+        <v>220</v>
+      </c>
+      <c r="CZ51" t="s">
+        <v>220</v>
+      </c>
+      <c r="DA51" t="s">
+        <v>220</v>
+      </c>
+      <c r="DB51" t="s">
+        <v>220</v>
+      </c>
+      <c r="DC51" t="s">
+        <v>220</v>
+      </c>
+      <c r="DD51" t="s">
+        <v>220</v>
+      </c>
+      <c r="DE51" t="s">
+        <v>220</v>
+      </c>
+      <c r="DF51" t="s">
+        <v>220</v>
+      </c>
+      <c r="DG51" t="s">
+        <v>220</v>
+      </c>
+      <c r="DH51" t="s">
+        <v>220</v>
+      </c>
+      <c r="DI51" t="s">
+        <v>220</v>
+      </c>
+      <c r="DJ51" t="s">
+        <v>220</v>
+      </c>
+      <c r="DK51" t="s">
+        <v>220</v>
+      </c>
+      <c r="DL51" t="s">
+        <v>220</v>
+      </c>
+      <c r="DM51" t="s">
+        <v>220</v>
+      </c>
+      <c r="DN51" t="s">
+        <v>220</v>
+      </c>
+      <c r="DO51" t="s">
+        <v>220</v>
+      </c>
+      <c r="DP51" t="s">
+        <v>220</v>
+      </c>
+      <c r="DQ51" t="s">
+        <v>221</v>
+      </c>
+      <c r="DR51" t="s">
+        <v>220</v>
+      </c>
+      <c r="DS51" t="s">
+        <v>220</v>
+      </c>
+      <c r="DT51" t="s">
+        <v>220</v>
+      </c>
+      <c r="DU51" t="s">
+        <v>220</v>
+      </c>
+      <c r="DV51" t="s">
+        <v>220</v>
+      </c>
+      <c r="DW51" t="s">
+        <v>220</v>
+      </c>
+      <c r="DX51" t="s">
+        <v>220</v>
+      </c>
+      <c r="DY51" t="s">
+        <v>220</v>
+      </c>
+      <c r="DZ51" t="s">
+        <v>220</v>
+      </c>
+      <c r="EA51" t="s">
+        <v>220</v>
+      </c>
+      <c r="EB51" t="s">
+        <v>220</v>
+      </c>
+      <c r="EC51" t="s">
+        <v>220</v>
+      </c>
+      <c r="ED51" t="s">
+        <v>220</v>
+      </c>
+      <c r="EE51" t="s">
+        <v>220</v>
+      </c>
+      <c r="EF51" t="s">
+        <v>220</v>
+      </c>
+      <c r="EG51" t="s">
+        <v>220</v>
+      </c>
+      <c r="EH51" t="s">
+        <v>221</v>
+      </c>
+      <c r="EI51" t="s">
+        <v>220</v>
+      </c>
+      <c r="EJ51" t="s">
+        <v>220</v>
+      </c>
+      <c r="EK51" t="s">
+        <v>220</v>
+      </c>
+      <c r="EL51" t="s">
+        <v>220</v>
+      </c>
+      <c r="EM51" t="s">
+        <v>220</v>
+      </c>
+      <c r="EN51" t="s">
+        <v>220</v>
+      </c>
+      <c r="EO51" t="s">
+        <v>220</v>
+      </c>
+      <c r="EP51" t="s">
+        <v>220</v>
+      </c>
+      <c r="EQ51" t="s">
+        <v>220</v>
+      </c>
+      <c r="ER51" t="s">
+        <v>220</v>
+      </c>
+      <c r="ES51" t="s">
+        <v>220</v>
+      </c>
+      <c r="ET51" t="s">
+        <v>220</v>
+      </c>
+      <c r="EU51" t="s">
+        <v>220</v>
+      </c>
+      <c r="EV51" t="s">
+        <v>220</v>
+      </c>
+      <c r="EW51" t="s">
+        <v>220</v>
+      </c>
+      <c r="EX51" t="s">
+        <v>220</v>
+      </c>
+      <c r="EY51" t="s">
+        <v>220</v>
+      </c>
+      <c r="EZ51" t="s">
+        <v>221</v>
+      </c>
+      <c r="FA51" t="s">
+        <v>220</v>
+      </c>
+      <c r="FB51" t="s">
+        <v>220</v>
+      </c>
+      <c r="FC51" t="s">
+        <v>220</v>
+      </c>
+      <c r="FD51" t="s">
+        <v>220</v>
+      </c>
+      <c r="FE51" t="s">
+        <v>220</v>
+      </c>
+      <c r="FF51" t="s">
+        <v>220</v>
+      </c>
+      <c r="FG51" t="s">
+        <v>220</v>
+      </c>
+      <c r="FH51" t="s">
+        <v>220</v>
+      </c>
+      <c r="FI51" t="s">
+        <v>220</v>
+      </c>
+      <c r="FJ51" t="s">
+        <v>220</v>
+      </c>
+      <c r="FK51" t="s">
+        <v>220</v>
+      </c>
+      <c r="FL51" t="s">
+        <v>220</v>
+      </c>
+      <c r="FM51" t="s">
+        <v>220</v>
+      </c>
+      <c r="FN51" t="s">
+        <v>220</v>
+      </c>
+      <c r="FO51" t="s">
+        <v>220</v>
+      </c>
+      <c r="FP51" t="s">
+        <v>220</v>
+      </c>
+      <c r="FQ51" t="s">
+        <v>220</v>
+      </c>
+      <c r="FR51" t="s">
+        <v>220</v>
+      </c>
+      <c r="FS51" t="s">
+        <v>220</v>
+      </c>
+      <c r="FT51" t="s">
+        <v>220</v>
+      </c>
+      <c r="FU51" t="s">
+        <v>220</v>
+      </c>
+      <c r="FV51" t="s">
+        <v>220</v>
+      </c>
+      <c r="FW51" t="s">
+        <v>220</v>
+      </c>
+      <c r="FX51" t="s">
+        <v>220</v>
+      </c>
+      <c r="FY51" t="s">
+        <v>220</v>
+      </c>
+      <c r="FZ51" t="s">
+        <v>220</v>
+      </c>
+      <c r="GA51" t="s">
+        <v>220</v>
+      </c>
+      <c r="GB51" t="s">
+        <v>220</v>
+      </c>
+      <c r="GC51" t="s">
+        <v>220</v>
+      </c>
+      <c r="GD51" t="s">
+        <v>220</v>
+      </c>
+      <c r="GE51" t="s">
+        <v>220</v>
+      </c>
+      <c r="GF51" t="s">
+        <v>220</v>
+      </c>
+      <c r="GG51" t="s">
+        <v>220</v>
+      </c>
+      <c r="GH51" t="s">
+        <v>220</v>
+      </c>
+      <c r="GI51" t="s">
+        <v>220</v>
+      </c>
+      <c r="GJ51" t="s">
+        <v>220</v>
+      </c>
+      <c r="GK51" t="s">
+        <v>220</v>
+      </c>
+      <c r="GL51" t="s">
+        <v>220</v>
+      </c>
+      <c r="GM51" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:197" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>486</v>
+      </c>
+      <c r="B52" t="s">
+        <v>487</v>
+      </c>
+      <c r="C52" t="s">
+        <v>488</v>
+      </c>
+      <c r="E52" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" t="s">
+        <v>72</v>
+      </c>
+      <c r="G52" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I52" t="s">
+        <v>485</v>
+      </c>
+      <c r="J52" t="s">
+        <v>181</v>
+      </c>
+      <c r="K52" t="s">
+        <v>78</v>
+      </c>
+      <c r="M52" t="s">
+        <v>492</v>
+      </c>
+      <c r="N52" t="s">
+        <v>489</v>
+      </c>
+      <c r="O52" t="s">
+        <v>217</v>
+      </c>
+      <c r="P52" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>78</v>
+      </c>
+      <c r="S52" t="s">
+        <v>220</v>
+      </c>
+      <c r="T52" t="s">
+        <v>221</v>
+      </c>
+      <c r="U52" t="s">
+        <v>221</v>
+      </c>
+      <c r="V52" t="s">
+        <v>221</v>
+      </c>
+      <c r="W52" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG52" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="AN52" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>221</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>221</v>
+      </c>
+      <c r="AW52" t="s">
+        <v>278</v>
+      </c>
+      <c r="CC52" t="s">
+        <v>222</v>
+      </c>
+      <c r="CK52" t="s">
+        <v>221</v>
+      </c>
+      <c r="CQ52" t="s">
+        <v>493</v>
+      </c>
+      <c r="CY52" t="s">
+        <v>221</v>
+      </c>
+      <c r="DJ52" t="s">
+        <v>221</v>
+      </c>
+      <c r="DP52" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="DQ52" t="s">
+        <v>221</v>
+      </c>
+      <c r="DY52" t="s">
+        <v>221</v>
+      </c>
+      <c r="EB52" t="s">
+        <v>221</v>
+      </c>
+      <c r="EC52" t="s">
+        <v>220</v>
+      </c>
+      <c r="ED52" t="s">
+        <v>220</v>
+      </c>
+      <c r="EE52" t="s">
+        <v>220</v>
+      </c>
+      <c r="EF52" t="s">
+        <v>220</v>
+      </c>
+      <c r="EG52" t="s">
+        <v>220</v>
+      </c>
+      <c r="EH52" t="s">
+        <v>220</v>
+      </c>
+      <c r="EJ52" t="s">
+        <v>220</v>
+      </c>
+      <c r="EL52" t="s">
+        <v>220</v>
+      </c>
+      <c r="EM52" t="s">
+        <v>220</v>
+      </c>
+      <c r="EN52" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="EO52" t="s">
+        <v>221</v>
+      </c>
+      <c r="EP52" t="s">
+        <v>220</v>
+      </c>
+      <c r="EQ52" t="s">
+        <v>220</v>
+      </c>
+      <c r="ER52" t="s">
+        <v>220</v>
+      </c>
+      <c r="ES52" t="s">
+        <v>220</v>
+      </c>
+      <c r="ET52" t="s">
+        <v>220</v>
+      </c>
+      <c r="EU52" t="s">
+        <v>220</v>
+      </c>
+      <c r="EV52" t="s">
+        <v>220</v>
+      </c>
+      <c r="EW52" t="s">
+        <v>220</v>
+      </c>
+      <c r="EX52" t="s">
+        <v>221</v>
+      </c>
+      <c r="EY52" t="s">
+        <v>220</v>
+      </c>
+      <c r="EZ52" t="s">
+        <v>220</v>
+      </c>
+      <c r="FA52" t="s">
+        <v>220</v>
+      </c>
+      <c r="FB52" t="s">
+        <v>220</v>
+      </c>
+      <c r="FC52" t="s">
+        <v>220</v>
+      </c>
+      <c r="FD52" t="s">
+        <v>220</v>
+      </c>
+      <c r="FE52" t="s">
+        <v>220</v>
+      </c>
+      <c r="FF52" t="s">
+        <v>220</v>
+      </c>
+      <c r="FG52" t="s">
+        <v>220</v>
+      </c>
+      <c r="FI52" t="s">
+        <v>221</v>
+      </c>
+      <c r="FJ52" t="s">
+        <v>220</v>
+      </c>
+      <c r="FK52" t="s">
+        <v>221</v>
+      </c>
+      <c r="FL52" t="s">
+        <v>220</v>
+      </c>
+      <c r="FU52" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="GN52" t="s">
+        <v>492</v>
+      </c>
+      <c r="GO52" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
